--- a/src/main/java/com/qa/Resource/AppdataExcell/Appdata.xlsx
+++ b/src/main/java/com/qa/Resource/AppdataExcell/Appdata.xlsx
@@ -4,22 +4,98 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="AppdataExcell" sheetId="1" r:id="rId1"/>
+    <sheet name="Bank" sheetId="2" r:id="rId2"/>
+    <sheet name="Accounts" sheetId="3" r:id="rId3"/>
+    <sheet name="AboutAlliant" sheetId="4" r:id="rId4"/>
+    <sheet name="HelpSupport" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+  <si>
+    <t>Accounts</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Borrow</t>
+  </si>
+  <si>
+    <t>Invest</t>
+  </si>
+  <si>
+    <t>Protect</t>
+  </si>
+  <si>
+    <t>About Alliant</t>
+  </si>
+  <si>
+    <t>Why Alliant</t>
+  </si>
+  <si>
+    <t>ATMs</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Careers</t>
+  </si>
+  <si>
+    <t>Media Center</t>
+  </si>
+  <si>
+    <t>Help &amp; Support</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>The Money Mentor Blog</t>
+  </si>
+  <si>
+    <t>High-Rate Savings</t>
+  </si>
+  <si>
+    <t>High-Rate Checking</t>
+  </si>
+  <si>
+    <t>Certificates</t>
+  </si>
+  <si>
+    <t>Kids Savings Accounts</t>
+  </si>
+  <si>
+    <t>Teen Checking</t>
+  </si>
+  <si>
+    <t>Supplemental Savings</t>
+  </si>
+  <si>
+    <t>Custodial Accounts</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -333,7 +409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -341,4 +417,177 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/com/qa/Resource/AppdataExcell/Appdata.xlsx
+++ b/src/main/java/com/qa/Resource/AppdataExcell/Appdata.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>Accounts</t>
   </si>

--- a/src/main/java/com/qa/Resource/AppdataExcell/Appdata.xlsx
+++ b/src/main/java/com/qa/Resource/AppdataExcell/Appdata.xlsx
@@ -2,20 +2,90 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user1\Selenium-Training\SeleniumDemo\ExportExcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18460" windowHeight="5690"/>
   </bookViews>
   <sheets>
-    <sheet name="AppdataExcell" sheetId="1" r:id="rId1"/>
+    <sheet name="WriteExcelDemo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t xml:space="preserve">Mr A </t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Mr B</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Mr C</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>MR D</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Gaye</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username </t>
+  </si>
+  <si>
+    <t xml:space="preserve">password </t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>user3</t>
+  </si>
+  <si>
+    <t>user4</t>
+  </si>
+  <si>
+    <t>user5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email iD </t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49,8 +119,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,14 +404,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/java/com/qa/Resource/AppdataExcell/Appdata.xlsx
+++ b/src/main/java/com/qa/Resource/AppdataExcell/Appdata.xlsx
@@ -2,90 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user1\Selenium-Training\SeleniumDemo\ExportExcel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18460" windowHeight="5690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="WriteExcelDemo" sheetId="1" r:id="rId1"/>
+    <sheet name="AppdataExcell" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t xml:space="preserve">Mr A </t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Mr B</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>Mr C</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>MR D</t>
-  </si>
-  <si>
-    <t>Goa</t>
-  </si>
-  <si>
-    <t>Gaye</t>
-  </si>
-  <si>
-    <t>abcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">username </t>
-  </si>
-  <si>
-    <t xml:space="preserve">password </t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>user3</t>
-  </si>
-  <si>
-    <t>user4</t>
-  </si>
-  <si>
-    <t>user5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email iD </t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -119,11 +49,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,87 +331,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>